--- a/liga_eliminacao/datasets_liga_eliminacao/links_times_cartola_liga_eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/links_times_cartola_liga_eliminacao.xlsx
@@ -58,9 +58,6 @@
     <t>cartola scheuer17</t>
   </si>
   <si>
-    <t>BORGES ITAQUI F.C.</t>
-  </si>
-  <si>
     <t>S.E.R. GRILLO</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
     <t>Grêmio imortal 37</t>
   </si>
   <si>
+    <t>Grêmio imortal 36</t>
+  </si>
+  <si>
     <t>FIGUEIRA DA ILHA</t>
   </si>
   <si>
@@ -154,9 +154,6 @@
     <t>https://cartola.globo.com/#!/time/3851966</t>
   </si>
   <si>
-    <t>https://cartola.globo.com/#!/time/3914981</t>
-  </si>
-  <si>
     <t>https://cartola.globo.com/#!/time/5823700</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/24468241</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/24856400</t>
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/25565675</t>
@@ -728,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>3914981</v>
+        <v>5823700</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>46</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>5823700</v>
+        <v>13707047</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>47</v>
@@ -750,7 +750,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>13707047</v>
+        <v>13913874</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>48</v>
@@ -761,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>13913874</v>
+        <v>13951133</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>49</v>
@@ -772,7 +772,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>13951133</v>
+        <v>14124559</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>50</v>
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>14124559</v>
+        <v>18223508</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>51</v>
@@ -794,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>18223508</v>
+        <v>18344271</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>52</v>
@@ -805,7 +805,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>18344271</v>
+        <v>18642587</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>53</v>
@@ -816,7 +816,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>18642587</v>
+        <v>18661583</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>54</v>
@@ -827,7 +827,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>18661583</v>
+        <v>19033717</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>55</v>
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>19033717</v>
+        <v>20696550</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>56</v>
@@ -849,7 +849,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>20696550</v>
+        <v>24468241</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>57</v>
@@ -860,7 +860,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>24468241</v>
+        <v>24856400</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>58</v>
@@ -967,19 +967,19 @@
     <hyperlink ref="C10" r:id="rId9" location="!/time/3447341"/>
     <hyperlink ref="C11" r:id="rId10" location="!/time/3708025"/>
     <hyperlink ref="C12" r:id="rId11" location="!/time/3851966"/>
-    <hyperlink ref="C13" r:id="rId12" location="!/time/3914981"/>
-    <hyperlink ref="C14" r:id="rId13" location="!/time/5823700"/>
-    <hyperlink ref="C15" r:id="rId14" location="!/time/13707047"/>
-    <hyperlink ref="C16" r:id="rId15" location="!/time/13913874"/>
-    <hyperlink ref="C17" r:id="rId16" location="!/time/13951133"/>
-    <hyperlink ref="C18" r:id="rId17" location="!/time/14124559"/>
-    <hyperlink ref="C19" r:id="rId18" location="!/time/18223508"/>
-    <hyperlink ref="C20" r:id="rId19" location="!/time/18344271"/>
-    <hyperlink ref="C21" r:id="rId20" location="!/time/18642587"/>
-    <hyperlink ref="C22" r:id="rId21" location="!/time/18661583"/>
-    <hyperlink ref="C23" r:id="rId22" location="!/time/19033717"/>
-    <hyperlink ref="C24" r:id="rId23" location="!/time/20696550"/>
-    <hyperlink ref="C25" r:id="rId24" location="!/time/24468241"/>
+    <hyperlink ref="C13" r:id="rId12" location="!/time/5823700"/>
+    <hyperlink ref="C14" r:id="rId13" location="!/time/13707047"/>
+    <hyperlink ref="C15" r:id="rId14" location="!/time/13913874"/>
+    <hyperlink ref="C16" r:id="rId15" location="!/time/13951133"/>
+    <hyperlink ref="C17" r:id="rId16" location="!/time/14124559"/>
+    <hyperlink ref="C18" r:id="rId17" location="!/time/18223508"/>
+    <hyperlink ref="C19" r:id="rId18" location="!/time/18344271"/>
+    <hyperlink ref="C20" r:id="rId19" location="!/time/18642587"/>
+    <hyperlink ref="C21" r:id="rId20" location="!/time/18661583"/>
+    <hyperlink ref="C22" r:id="rId21" location="!/time/19033717"/>
+    <hyperlink ref="C23" r:id="rId22" location="!/time/20696550"/>
+    <hyperlink ref="C24" r:id="rId23" location="!/time/24468241"/>
+    <hyperlink ref="C25" r:id="rId24" location="!/time/24856400"/>
     <hyperlink ref="C26" r:id="rId25" location="!/time/25565675"/>
     <hyperlink ref="C27" r:id="rId26" location="!/time/25811332"/>
     <hyperlink ref="C28" r:id="rId27" location="!/time/28741323"/>
